--- a/VME_Mitgliederverzeichnis_verdichtet_20230126.xlsx
+++ b/VME_Mitgliederverzeichnis_verdichtet_20230126.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.northdata.de/AVG+Abfall-Verwertungs-GmbH,+Hamburg/HRB+42798</t>
+          <t>https://www.northdata.de/AVG+GmbH,+Meppen/Amtsgericht+Osnabrück+HRB+120037</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,11 @@
           <t>ALCO Moebel GmbH Wohnzentrum</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.northdata.de/ALCO+Möbel+GmbH+Wohnzentrum,+Brand-Erbisdorf/Amtsgericht+Chemnitz+HRB+2303</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -605,7 +609,11 @@
           <t>Alkoni Einrichtungs- discounter GmbH</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.northdata.de/Alkoni+Einrichtungsdiscounter+GmbH,+Marburg/HRB+1563</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -645,7 +653,11 @@
           <t>Angermueller GmbH &amp; Co. KG Einrichtungshaus</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.northdata.de/Einrichtungshaus+Angermüller+GmbH+&amp;+Co·+KG,+Bad+Neustadt+a·+d·+Saale/Amtsgericht+Schweinfurt+HRA+5037</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">

--- a/VME_Mitgliederverzeichnis_verdichtet_20230126.xlsx
+++ b/VME_Mitgliederverzeichnis_verdichtet_20230126.xlsx
@@ -697,7 +697,11 @@
           <t>Moebel Arenz GmbH &amp; Co. KG</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.northdata.de/MÖBEL+ARENZ+GmbH,+Mechernich/Amtsgericht+Bonn+HRB+11425</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -737,7 +741,11 @@
           <t>Moebelhaus Baeucke GmbH &amp; Co. KG</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.northdata.de/Möbelhaus+Bäucke+GmbH+&amp;+Co·+KG,+Northeim/Amtsgericht+Göttingen+HRA+130001</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
